--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_3_0.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_3_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,28 +482,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.02628945454218479</v>
+        <v>-0.1647107098449927</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.007981299955614363</v>
+        <v>-0.005779479693214018</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04161834241230844</v>
+        <v>-0.2853512217752687</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03433814800092827</v>
+        <v>-0.03611169873229558</v>
       </c>
       <c r="F2" t="n">
-        <v>1.135800004005432</v>
+        <v>1.288991570472717</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9054808020591736</v>
+        <v>1.115342378616333</v>
       </c>
       <c r="H2" t="n">
-        <v>1.887047648429871</v>
+        <v>1.069115042686462</v>
       </c>
       <c r="I2" t="n">
-        <v>1.36739456653595</v>
+        <v>1.093588352203369</v>
       </c>
     </row>
     <row r="3">
@@ -513,28 +513,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2348720106046062</v>
+        <v>-0.07063640319961006</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1747877267021041</v>
+        <v>-0.0860625859927755</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2787387540656052</v>
+        <v>-0.1175514007727243</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2508840831917218</v>
+        <v>-0.01853898406570709</v>
       </c>
       <c r="F3" t="n">
-        <v>0.846771240234375</v>
+        <v>1.184879064559937</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7412973642349243</v>
+        <v>1.204370975494385</v>
       </c>
       <c r="H3" t="n">
-        <v>1.420158982276917</v>
+        <v>0.9295443892478943</v>
       </c>
       <c r="I3" t="n">
-        <v>1.060761570930481</v>
+        <v>1.075040817260742</v>
       </c>
     </row>
     <row r="4">
@@ -544,28 +544,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2450396379114592</v>
+        <v>-0.06332998876146156</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1762317626377592</v>
+        <v>-0.0855037133026606</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2873236401602229</v>
+        <v>-0.1159283845638432</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2569866871192151</v>
+        <v>-0.01762626823003255</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8355187177658081</v>
+        <v>1.176792979240417</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7400001287460327</v>
+        <v>1.20375120639801</v>
       </c>
       <c r="H4" t="n">
-        <v>1.403255462646484</v>
+        <v>0.9281944036483765</v>
       </c>
       <c r="I4" t="n">
-        <v>1.052120208740234</v>
+        <v>1.074077486991882</v>
       </c>
     </row>
     <row r="5">
@@ -575,28 +575,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6054213077773405</v>
+        <v>-0.04566338852383778</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5148735028029163</v>
+        <v>-0.2227161513419678</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7241740920886467</v>
+        <v>0.01204873131377671</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6565785306330812</v>
+        <v>-0.04648733345325473</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4366823136806488</v>
+        <v>1.157241225242615</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4357945024967194</v>
+        <v>1.355910778045654</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5430995225906372</v>
+        <v>0.8217470645904541</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4862909913063049</v>
+        <v>1.104539513587952</v>
       </c>
     </row>
     <row r="6">
@@ -606,28 +606,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6572058970900598</v>
+        <v>-0.04378630359518021</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5866428749640986</v>
+        <v>-0.221557879492102</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7813901109597757</v>
+        <v>0.01104632729815336</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7181224854039667</v>
+        <v>-0.04621481481900025</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3793720602989197</v>
+        <v>1.155163884162903</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3713232576847076</v>
+        <v>1.354626297950745</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4304415583610535</v>
+        <v>0.8225808143615723</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3991436362266541</v>
+        <v>1.104251980781555</v>
       </c>
     </row>
     <row r="7">
@@ -637,28 +637,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6574223074514571</v>
+        <v>-0.02443699019656576</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5852256231410238</v>
+        <v>-0.1945099251368605</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7822126258491429</v>
+        <v>0.02797917046688536</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7181847152839824</v>
+        <v>-0.02489050753111233</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3791325390338898</v>
+        <v>1.133749842643738</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3725964426994324</v>
+        <v>1.324631810188293</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4288220107555389</v>
+        <v>0.8084965944290161</v>
       </c>
       <c r="I7" t="n">
-        <v>0.399055540561676</v>
+        <v>1.081744432449341</v>
       </c>
     </row>
     <row r="8">
@@ -668,28 +668,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6922069645841744</v>
+        <v>-0.01845161953215002</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6352168449278839</v>
+        <v>-0.1815285243118687</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8208667896486024</v>
+        <v>-0.02880793671690762</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7602682406727446</v>
+        <v>-0.03872931491799725</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3406361937522888</v>
+        <v>1.127125859260559</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3276887834072113</v>
+        <v>1.31023645401001</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3527122139930725</v>
+        <v>0.8557303547859192</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3394644856452942</v>
+        <v>1.096351146697998</v>
       </c>
     </row>
     <row r="9">
@@ -699,28 +699,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6969391613584428</v>
+        <v>-0.007778859587981524</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6417161717691193</v>
+        <v>-0.1834864635534794</v>
       </c>
       <c r="D9" t="n">
-        <v>0.821552856958919</v>
+        <v>-0.02745364209103052</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7628999933888794</v>
+        <v>-0.03931611872393526</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3353990018367767</v>
+        <v>1.115314245223999</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3218503594398499</v>
+        <v>1.312407493591309</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3513613343238831</v>
+        <v>0.8546038866043091</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3357378840446472</v>
+        <v>1.096970558166504</v>
       </c>
     </row>
     <row r="10">
@@ -730,28 +730,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6998729214007617</v>
+        <v>-0.006638213803000337</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6289416835861203</v>
+        <v>-0.1827027293282915</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8223252383314478</v>
+        <v>-0.02854626638662228</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7591150349677405</v>
+        <v>-0.03928542247684907</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3321522772312164</v>
+        <v>1.114051938056946</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3333258032798767</v>
+        <v>1.311538457870483</v>
       </c>
       <c r="H10" t="n">
-        <v>0.349840521812439</v>
+        <v>0.8555126786231995</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3410974442958832</v>
+        <v>1.096938133239746</v>
       </c>
     </row>
     <row r="11">
@@ -761,28 +761,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7081189928752956</v>
+        <v>0.1360182519616768</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6577397389922451</v>
+        <v>-0.04338493420791023</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8281423275416905</v>
+        <v>0.2606522025418501</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7725935016583158</v>
+        <v>0.1454556465891161</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3230262398719788</v>
+        <v>0.9561732411384583</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3074561953544617</v>
+        <v>1.157044291496277</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3383867144584656</v>
+        <v>0.6149664521217346</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3220117092132568</v>
+        <v>0.901948869228363</v>
       </c>
     </row>
     <row r="12">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7214980443146397</v>
+        <v>0.1401488132068653</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6646133495000686</v>
+        <v>-0.03709464138193197</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8540475625492855</v>
+        <v>0.2591734546710451</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7918533100650339</v>
+        <v>0.1484060795134108</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3082196116447449</v>
+        <v>0.9516019225120544</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3012815713882446</v>
+        <v>1.150068759918213</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2873794734477997</v>
+        <v>0.6161963939666748</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2947394549846649</v>
+        <v>0.8988347053527832</v>
       </c>
     </row>
     <row r="13">
@@ -823,28 +823,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7274620697242382</v>
+        <v>0.2263285090902388</v>
       </c>
       <c r="C13" t="n">
-        <v>0.694526263036898</v>
+        <v>0.03434246766202642</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8268279784608799</v>
+        <v>0.3173412538189461</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7840883703737263</v>
+        <v>0.2097126596729875</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3016192018985748</v>
+        <v>0.85622638463974</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2744104266166687</v>
+        <v>1.070849895477295</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3409746587276459</v>
+        <v>0.5678142309188843</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3057347536087036</v>
+        <v>0.8341272473335266</v>
       </c>
     </row>
     <row r="14">
@@ -854,28 +854,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7535605402434207</v>
+        <v>0.2725322162451504</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6645425607829949</v>
+        <v>0.08473485735699915</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8940315705004894</v>
+        <v>0.3330422136456769</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8179935262650442</v>
+        <v>0.2435650159255351</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2727358639240265</v>
+        <v>0.8050925135612488</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3013451397418976</v>
+        <v>1.014968037605286</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2086511850357056</v>
+        <v>0.5547546744346619</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2577244937419891</v>
+        <v>0.7983969449996948</v>
       </c>
     </row>
     <row r="15">
@@ -885,28 +885,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7696909357947664</v>
+        <v>0.2978804967513098</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7262937723974301</v>
+        <v>0.1069453384619754</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8911728902529047</v>
+        <v>0.3076536447238747</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8368623454916699</v>
+        <v>0.2465035948481201</v>
       </c>
       <c r="F15" t="n">
-        <v>0.254884272813797</v>
+        <v>0.7770394086837769</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2458733469247818</v>
+        <v>0.9903380274772644</v>
       </c>
       <c r="H15" t="n">
-        <v>0.214279904961586</v>
+        <v>0.5758720636367798</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2310058623552322</v>
+        <v>0.7952953577041626</v>
       </c>
     </row>
     <row r="16">
@@ -916,28 +916,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7779332241991945</v>
+        <v>0.3253754829351155</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7014947498427447</v>
+        <v>0.1439573106635069</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9068744470856192</v>
+        <v>0.2820039701734876</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8388079463060275</v>
+        <v>0.2575783250659095</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2457624822854996</v>
+        <v>0.7466105222702026</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2681505680084229</v>
+        <v>0.9492942094802856</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1833636462688446</v>
+        <v>0.597206711769104</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2282508611679077</v>
+        <v>0.7836062908172607</v>
       </c>
     </row>
     <row r="17">
@@ -947,28 +947,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7832633664526972</v>
+        <v>0.3341185723891006</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7108942606424632</v>
+        <v>0.1676135971113576</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9078660691124543</v>
+        <v>0.09020687606382449</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8426137236632988</v>
+        <v>0.199609403548295</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2398635894060135</v>
+        <v>0.7369345426559448</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2597069144248962</v>
+        <v>0.9230610728263855</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1814111471176147</v>
+        <v>0.7567375898361206</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2228618115186691</v>
+        <v>0.8447909355163574</v>
       </c>
     </row>
     <row r="18">
@@ -978,28 +978,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7844225970762473</v>
+        <v>0.3569374718909658</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7116545413889708</v>
+        <v>0.1825716295570808</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9082761153706509</v>
+        <v>0.1415277870593162</v>
       </c>
       <c r="E18" t="n">
-        <v>0.843137322899453</v>
+        <v>0.2269617808484019</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2385806739330292</v>
+        <v>0.7116807699203491</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2590239346027374</v>
+        <v>0.9064735770225525</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1806037724018097</v>
+        <v>0.7140504121780396</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2221203744411469</v>
+        <v>0.8159212470054626</v>
       </c>
     </row>
     <row r="19">
@@ -1009,28 +1009,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7856115696777777</v>
+        <v>0.3645630350584926</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7133281476745212</v>
+        <v>0.1563492698951623</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9087192572911965</v>
+        <v>0.1920310904876137</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8439894700920899</v>
+        <v>0.2311048165272436</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2372648417949677</v>
+        <v>0.7032414674758911</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2575205266475677</v>
+        <v>0.9355523586273193</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1797312200069427</v>
+        <v>0.6720433235168457</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2209137231111526</v>
+        <v>0.8115484714508057</v>
       </c>
     </row>
     <row r="20">
@@ -1040,90 +1040,90 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.786137753420294</v>
+        <v>0.3681372046413034</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7188924682646731</v>
+        <v>0.1583780983873831</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9075695803590478</v>
+        <v>0.2159048652413301</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8451059238396534</v>
+        <v>0.2410874280894735</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2366824895143509</v>
+        <v>0.6992859244346619</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2525220215320587</v>
+        <v>0.9333025813102722</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1819949299097061</v>
+        <v>0.65218585729599</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2193328142166138</v>
+        <v>0.8010119795799255</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_3_0_20</t>
+          <t>model_3_0_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7890150218327917</v>
+        <v>0.3920309924545077</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7211631549780628</v>
+        <v>0.1911303213986877</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9093299103146526</v>
+        <v>0.2586953467083167</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8470204743883419</v>
+        <v>0.2751735099785119</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2334982007741928</v>
+        <v>0.6728425621986389</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2504822313785553</v>
+        <v>0.8969824910163879</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1785288453102112</v>
+        <v>0.6165940761566162</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2166217714548111</v>
+        <v>0.765035092830658</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_3_0_19</t>
+          <t>model_3_0_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.7892625434474041</v>
+        <v>0.4079858277789623</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7241796455142846</v>
+        <v>0.2141638141926014</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9106422425276638</v>
+        <v>0.3073269564985193</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8488923153843216</v>
+        <v>0.3060210502681151</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2332242578268051</v>
+        <v>0.6551852226257324</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2477724850177765</v>
+        <v>0.8714399337768555</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1759448796510696</v>
+        <v>0.5761438608169556</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2139712125062943</v>
+        <v>0.7324763536453247</v>
       </c>
     </row>
     <row r="23">
@@ -1133,28 +1133,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.7901745875698347</v>
+        <v>0.4131129036485381</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7286666520875849</v>
+        <v>0.2226816719292847</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9086280280894757</v>
+        <v>0.3074146838691625</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8490812263036506</v>
+        <v>0.3107902761319483</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2322149127721786</v>
+        <v>0.6495110392570496</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2437417507171631</v>
+        <v>0.861994206905365</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1799108684062958</v>
+        <v>0.5760709047317505</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2137037217617035</v>
+        <v>0.7274425029754639</v>
       </c>
     </row>
     <row r="24">
@@ -1164,59 +1164,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.791429782952643</v>
+        <v>0.419595252568711</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7310558492753327</v>
+        <v>0.2396271653841645</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9103677072248517</v>
+        <v>0.3114535131133291</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8510220506222066</v>
+        <v>0.3217137661918845</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2308257669210434</v>
+        <v>0.6423369646072388</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2415955364704132</v>
+        <v>0.8432028293609619</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1764854490756989</v>
+        <v>0.5727114677429199</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2109554708003998</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>model_3_0_23</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.7945061938599236</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.7357979521593798</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.913380845860119</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.8545864593158424</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.2274210900068283</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.2373356223106384</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.1705525815486908</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.2059081941843033</v>
+        <v>0.7159131169319153</v>
       </c>
     </row>
   </sheetData>
